--- a/BalanceSheet/TWLO_bal.xlsx
+++ b/BalanceSheet/TWLO_bal.xlsx
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>9974000.0</v>
+        <v>60000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>11609000.0</v>
+        <v>40000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>9280000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-20803000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>12922000.0</v>
+        <v>39000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>25949000.0</v>
